--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints0.150000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints0.150000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>3.917159151631623e-130</v>
+        <v>2.111210593045247e-130</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>3.7075926007831e-130</v>
+        <v>2.001679138798132e-130</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>3.507053880994241e-130</v>
+        <v>1.897064657777096e-130</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>3.31533214240705e-130</v>
+        <v>1.797247014536909e-130</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>3.132216535163532e-130</v>
+        <v>1.702106073632343e-130</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>2.95749620940569e-130</v>
+        <v>1.611521699618168e-130</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>2.790960315275533e-130</v>
+        <v>1.525373757049156e-130</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>2.632398002915059e-130</v>
+        <v>1.443542110480076e-130</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>2.481598422466276e-130</v>
+        <v>1.3659066244657e-130</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>2.338350724071189e-130</v>
+        <v>1.2923471635608e-130</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>2.202444057871865e-130</v>
+        <v>1.222743592320178e-130</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>2.073667574010178e-130</v>
+        <v>1.156975775298538e-130</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>1.951810422628199e-130</v>
+        <v>1.094923577050686e-130</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>1.836661753867934e-130</v>
+        <v>1.036466862131392e-130</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>1.728010717871385e-130</v>
+        <v>9.814854950954278e-131</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>1.62564646478056e-130</v>
+        <v>9.298593404975642e-131</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>1.529358144737459e-130</v>
+        <v>8.814682628925717e-131</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>1.438934907884091e-130</v>
+        <v>8.361921268352212e-131</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>1.354165904362457e-130</v>
+        <v>7.939107968802836e-131</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>1.274840284314564e-130</v>
+        <v>7.5450413758253e-131</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>1.200747197882415e-130</v>
+        <v>7.178520134967314e-131</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>1.131675795208014e-130</v>
+        <v>6.838342891776583e-131</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>1.067415226433367e-130</v>
+        <v>6.52330829180082e-131</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>1.007754641700478e-130</v>
+        <v>6.232214980587727e-131</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>9.524831911513508e-131</v>
+        <v>5.963861603685021e-131</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>9.013900249279905e-131</v>
+        <v>5.717046806640407e-131</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>8.542642931724013e-131</v>
+        <v>5.490569235001594e-131</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>8.108951460265876e-131</v>
+        <v>5.283227534316292e-131</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>7.710717336325724e-131</v>
+        <v>5.093820350132297e-131</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>7.345832061323221e-131</v>
+        <v>4.921146327997134e-131</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>7.012187136678607e-131</v>
+        <v>4.764004113458609e-131</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>6.70767406381193e-131</v>
+        <v>4.621192352064431e-131</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>6.430184344143233e-131</v>
+        <v>4.491509689362308e-131</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>6.177609479092563e-131</v>
+        <v>4.37375477089995e-131</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>5.947840970079962e-131</v>
+        <v>4.266726242225065e-131</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>5.738770318525476e-131</v>
+        <v>4.169222748885363e-131</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>5.54828902584915e-131</v>
+        <v>4.080042936428551e-131</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>5.374288593471028e-131</v>
+        <v>3.99798545040234e-131</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>5.214660522811155e-131</v>
+        <v>3.921848936354437e-131</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>5.067296315289577e-131</v>
+        <v>3.850432039832554e-131</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>4.930087472326336e-131</v>
+        <v>3.782533406384397e-131</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>4.800925495341478e-131</v>
+        <v>3.716951681557674e-131</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>4.677701885755049e-131</v>
+        <v>3.652485510900098e-131</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>4.55830814498709e-131</v>
+        <v>3.587933539959374e-131</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>4.44063577445765e-131</v>
+        <v>3.522094414283213e-131</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>4.322576275586773e-131</v>
+        <v>3.453766779419324e-131</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>4.202021149794501e-131</v>
+        <v>3.381749280915416e-131</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>4.076866216083117e-131</v>
+        <v>3.304843548550597e-131</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>3.946059372312148e-131</v>
+        <v>3.222578389166313e-131</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>3.810966845099134e-131</v>
+        <v>3.136154112828175e-131</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>3.673293371386005e-131</v>
+        <v>3.047005001553195e-131</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>3.534743688114694e-131</v>
+        <v>2.956565337358388e-131</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>3.397022532227131e-131</v>
+        <v>2.86626940226077e-131</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>3.261834640665251e-131</v>
+        <v>2.777551478277355e-131</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>3.130884750370984e-131</v>
+        <v>2.691845847425157e-131</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>3.00587759828626e-131</v>
+        <v>2.610586791721191e-131</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>2.888517921353013e-131</v>
+        <v>2.535208593182472e-131</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>2.780510456513175e-131</v>
+        <v>2.467145533826014e-131</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>2.683559940708678e-131</v>
+        <v>2.407831895668833e-131</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>2.599371110881451e-131</v>
+        <v>2.358701960727941e-131</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>2.529648703973429e-131</v>
+        <v>2.321190011020355e-131</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>2.476097456926541e-131</v>
+        <v>2.296730328563088e-131</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>2.440422106682722e-131</v>
+        <v>2.286757195373157e-131</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>2.4243273901839e-131</v>
+        <v>2.292704893467574e-131</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>2.429518044372009e-131</v>
+        <v>2.316007704863355e-131</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>2.457698806188961e-131</v>
+        <v>2.358099911577488e-131</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>2.510299673188928e-131</v>
+        <v>2.420184678389923e-131</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>2.585806529753403e-131</v>
+        <v>2.500988512810262e-131</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>2.680918060988264e-131</v>
+        <v>2.597734488268027e-131</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>2.792307824555065e-131</v>
+        <v>2.707624540395374e-131</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>2.916649378115362e-131</v>
+        <v>2.827860604824458e-131</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>3.050616279330708e-131</v>
+        <v>2.955644617187435e-131</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>3.190882085862659e-131</v>
+        <v>3.088178513116461e-131</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>3.33412035537277e-131</v>
+        <v>3.22266422824369e-131</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>3.477004645522593e-131</v>
+        <v>3.356303698201279e-131</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>3.616208513973688e-131</v>
+        <v>3.486298858621382e-131</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>3.748405518387604e-131</v>
+        <v>3.609851645136155e-131</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>3.8702692164259e-131</v>
+        <v>3.724163993377756e-131</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>3.978473165750129e-131</v>
+        <v>3.826437838978336e-131</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>4.069690924021845e-131</v>
+        <v>3.913875117570053e-131</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>4.140794424585827e-131</v>
+        <v>3.983833555834014e-131</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>4.190899450831877e-131</v>
+        <v>4.035433050826869e-131</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>4.220540402649938e-131</v>
+        <v>4.068907586518676e-131</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>4.23027405290727e-131</v>
+        <v>4.084508717125741e-131</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>4.220657174471151e-131</v>
+        <v>4.082487996864383e-131</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>4.19224654020883e-131</v>
+        <v>4.063096979950908e-131</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>4.145598922987571e-131</v>
+        <v>4.026587220601622e-131</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>4.081271095674634e-131</v>
+        <v>3.973210273032832e-131</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>3.999819831137284e-131</v>
+        <v>3.903217691460848e-131</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>3.901801902242781e-131</v>
+        <v>3.816861030101979e-131</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>3.78777408185839e-131</v>
+        <v>3.714391843172537e-131</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>3.658293142851373e-131</v>
+        <v>3.596061684888828e-131</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>3.51391585808899e-131</v>
+        <v>3.462122109467162e-131</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>3.355199000438506e-131</v>
+        <v>3.312824671123848e-131</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>3.182784013095237e-131</v>
+        <v>3.148525787680918e-131</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>2.998324192896915e-131</v>
+        <v>2.970835050579156e-131</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>2.804138975427294e-131</v>
+        <v>2.782187059410667e-131</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>2.60255951312433e-131</v>
+        <v>2.585030925009068e-131</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>2.395916958425977e-131</v>
+        <v>2.38181575820798e-131</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>2.186542463770192e-131</v>
+        <v>2.174990669841021e-131</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>1.976767181594932e-131</v>
+        <v>1.967004770741811e-131</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>1.768922264338152e-131</v>
+        <v>1.760307171743968e-131</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>1.565338864437905e-131</v>
+        <v>1.557346983681209e-131</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>1.36834813433195e-131</v>
+        <v>1.360573317386956e-131</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>1.180281226458343e-131</v>
+        <v>1.172435283694927e-131</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>1.003469293255038e-131</v>
+        <v>9.953819934387412e-132</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>8.402434871599932e-132</v>
+        <v>8.318625574520179e-132</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>6.929349606111637e-132</v>
+        <v>6.843260865683769e-132</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>5.638748660465056e-132</v>
+        <v>5.552216916214368e-132</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>4.551987196490795e-132</v>
+        <v>4.467926478644144e-132</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>3.662942162029611e-132</v>
+        <v>3.583911538796679e-132</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>2.945219642576024e-132</v>
+        <v>2.872366416421972e-132</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>2.371952778638908e-132</v>
+        <v>2.304987829710071e-132</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>1.917118746170759e-132</v>
+        <v>1.854535861457205e-132</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>1.559566448438404e-132</v>
+        <v>1.49990827793744e-132</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>1.279888888682109e-132</v>
+        <v>1.222200163316415e-132</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>1.058681285004098e-132</v>
+        <v>1.002509392170808e-132</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>8.766179945260908e-133</v>
+        <v>8.220104541990844e-133</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>7.204714461809499e-133</v>
+        <v>6.677814315056865e-133</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>5.873366500714839e-133</v>
+        <v>5.368937801158985e-133</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>4.753067508492031e-133</v>
+        <v>4.273852581459536e-133</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>3.82474893165659e-133</v>
+        <v>3.372936237121245e-133</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>3.069342216722733e-133</v>
+        <v>2.646566349305581e-133</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>2.467778810206061e-133</v>
+        <v>2.07512049917536e-133</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>2.000990158621684e-133</v>
+        <v>1.638976267892915e-133</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>1.64990770848471e-133</v>
+        <v>1.318511236620581e-133</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>1.395462906310245e-133</v>
+        <v>1.094102986520691e-133</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>1.218587198613398e-133</v>
+        <v>9.46129098755579e-134</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>1.100212031909277e-133</v>
+        <v>8.549671544875786e-134</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>1.02126885271299e-133</v>
+        <v>8.009947348790236e-134</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>9.626891075396447e-134</v>
+        <v>7.645894210922479e-134</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>9.054083315899334e-134</v>
+        <v>7.261331389982828e-134</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>8.360192916162093e-134</v>
+        <v>6.720192875005308e-134</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>7.579991741058587e-134</v>
+        <v>6.065829447455898e-134</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>6.779612990509153e-134</v>
+        <v>5.374916991047035e-134</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>6.025189864434129e-134</v>
+        <v>4.724131389491156e-134</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>5.380944395790174e-134</v>
+        <v>4.187896751671977e-134</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>4.871046792979465e-134</v>
+        <v>3.793447332268678e-134</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>4.481671788600286e-134</v>
+        <v>3.523250362645973e-134</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>4.19749457623033e-134</v>
+        <v>3.358006287547842e-134</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>4.003190349446905e-134</v>
+        <v>3.278415551718053e-134</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>3.883434301827748e-134</v>
+        <v>3.265178599900632e-134</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>3.822901626950438e-134</v>
+        <v>3.298995876839501e-134</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>3.80626751839255e-134</v>
+        <v>3.36056782727858e-134</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>3.818207169731663e-134</v>
+        <v>3.430594895961793e-134</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>3.843397376861071e-134</v>
+        <v>3.489780007614202e-134</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>3.870028814047651e-134</v>
+        <v>3.52426468560719e-134</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>3.897256802029047e-134</v>
+        <v>3.537160964272801e-134</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>3.926369343765989e-134</v>
+        <v>3.53488173284424e-134</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>3.958654442219208e-134</v>
+        <v>3.523839880554713e-134</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>3.995400100349436e-134</v>
+        <v>3.510448296637424e-134</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>4.037894321117404e-134</v>
+        <v>3.501119870325581e-134</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>4.087425107483842e-134</v>
+        <v>3.502267490852387e-134</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>4.145280462409482e-134</v>
+        <v>3.520304047451048e-134</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>4.212748388855053e-134</v>
+        <v>3.561642429354769e-134</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>4.291022187193405e-134</v>
+        <v>3.631874149814495e-134</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>4.380665574993112e-134</v>
+        <v>3.731130214551092e-134</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>4.481985436404411e-134</v>
+        <v>3.857314057621543e-134</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>4.595287897956828e-134</v>
+        <v>4.008322542074966e-134</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>4.720879086179832e-134</v>
+        <v>4.182052530960394e-134</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>4.859065127603075e-134</v>
+        <v>4.376400887327118e-134</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>5.010152148756027e-134</v>
+        <v>4.589264474224178e-134</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>5.174446276168218e-134</v>
+        <v>4.818540154700697e-134</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>5.352253636369179e-134</v>
+        <v>5.062124791805793e-134</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>5.543880355888442e-134</v>
+        <v>5.317915248588594e-134</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>5.749632561255533e-134</v>
+        <v>5.583808388098214e-134</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>5.969816378999982e-134</v>
+        <v>5.857701073383774e-134</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>6.204737935651322e-134</v>
+        <v>6.137490167494399e-134</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>6.454701506831995e-134</v>
+        <v>6.421071383913767e-134</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>6.717450396002644e-134</v>
+        <v>6.704749861903281e-134</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>6.983084498622165e-134</v>
+        <v>6.980083556073472e-134</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>7.240284013867312e-134</v>
+        <v>7.237748672945788e-134</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>7.477729140914843e-134</v>
+        <v>7.46842141904169e-134</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>7.684100078941513e-134</v>
+        <v>7.662778000882629e-134</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>7.848077027124083e-134</v>
+        <v>7.811494624990066e-134</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>7.958340184639301e-134</v>
+        <v>7.905247497885452e-134</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>8.003569750663927e-134</v>
+        <v>7.934712826090248e-134</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>7.972445924374757e-134</v>
+        <v>7.890566816125941e-134</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>7.853869501501339e-134</v>
+        <v>7.763679291088964e-134</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>7.646345374600312e-134</v>
+        <v>7.553349545479083e-134</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>7.361484365889128e-134</v>
+        <v>7.270379887695108e-134</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>7.011839547556373e-134</v>
+        <v>6.92639963458126e-134</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>6.609963991790639e-134</v>
+        <v>6.533038102981755e-134</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>6.168410770780509e-134</v>
+        <v>6.101924609740812e-134</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>5.699732956714572e-134</v>
+        <v>5.644688471702644e-134</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>5.216483621781418e-134</v>
+        <v>5.172959005711472e-134</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>4.731215838169633e-134</v>
+        <v>4.698365528611511e-134</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>4.256478527252494e-134</v>
+        <v>4.232533683174213e-134</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>3.802182868351319e-134</v>
+        <v>3.784754328397544e-134</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>3.371084464064935e-134</v>
+        <v>3.357984601447498e-134</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>2.964737209671554e-134</v>
+        <v>2.954117954452867e-134</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>2.584695000449389e-134</v>
+        <v>2.575047839542447e-134</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>2.232511731676655e-134</v>
+        <v>2.222667708845037e-134</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>1.909741298631562e-134</v>
+        <v>1.898871014489431e-134</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>1.617937596592324e-134</v>
+        <v>1.605551208604425e-134</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>1.358654520837155e-134</v>
+        <v>1.344601743318816e-134</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>1.133445966644367e-134</v>
+        <v>1.1179160707615e-134</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>9.432769286362177e-135</v>
+        <v>9.267521072512744e-135</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>7.857395877129766e-135</v>
+        <v>7.687278616298878e-135</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>6.572274609420232e-135</v>
+        <v>6.401677564911152e-135</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>5.541326270581147e-135</v>
+        <v>5.373946621942772e-135</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>4.728471647960078e-135</v>
+        <v>4.567314490986946e-135</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>4.097631528904596e-135</v>
+        <v>3.945009875636881e-135</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>3.612726700762271e-135</v>
+        <v>3.470261479485781e-135</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>3.237677950880673e-135</v>
+        <v>3.106298006126854e-135</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>2.936406066607369e-135</v>
+        <v>2.816348159153305e-135</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>2.673350692080818e-135</v>
+        <v>2.564170120500031e-135</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>2.428687425050577e-135</v>
+        <v>2.329580157433481e-135</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>2.200784279496664e-135</v>
+        <v>2.110959371575606e-135</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>1.989022661568803e-135</v>
+        <v>1.907723001934476e-135</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>1.792783977416715e-135</v>
+        <v>1.719286287518153e-135</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>1.611449633190121e-135</v>
+        <v>1.545064467334704e-135</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>1.444401035038745e-135</v>
+        <v>1.384472780392196e-135</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>1.291019589112378e-135</v>
+        <v>1.236926465698763e-135</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>1.150686701560594e-135</v>
+        <v>1.101840762262328e-135</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>1.022783778533194e-135</v>
+        <v>9.786309090910309e-136</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>9.066922261798972e-136</v>
+        <v>8.667121451929389e-136</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>8.017934506504278e-136</v>
+        <v>7.654997095761179e-136</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>7.074688580945065e-136</v>
+        <v>6.744088412486334e-136</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>6.230998546618559e-136</v>
+        <v>5.928547792185521e-136</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>5.480678465021973e-136</v>
+        <v>5.202527624939394e-136</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>4.817542397652529e-136</v>
+        <v>4.560180300828615e-136</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>4.235404406007446e-136</v>
+        <v>3.995658209933846e-136</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>3.728078551583943e-136</v>
+        <v>3.503113742335745e-136</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>3.289378895879237e-136</v>
+        <v>3.076699288114973e-136</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>2.913119500390548e-136</v>
+        <v>2.710567237352191e-136</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>2.593114426615098e-136</v>
+        <v>2.398869980128059e-136</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>2.323177736050101e-136</v>
+        <v>2.135759906523235e-136</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>2.09712349019278e-136</v>
+        <v>1.915389406618382e-136</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>1.908765750540351e-136</v>
+        <v>1.731910870494159e-136</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>1.751918578590035e-136</v>
+        <v>1.579476688231226e-136</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>1.62039603583905e-136</v>
+        <v>1.452239249910244e-136</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>1.508012183784615e-136</v>
+        <v>1.344350945611872e-136</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>1.408581083923996e-136</v>
+        <v>1.249964165416815e-136</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>1.315951995643827e-136</v>
+        <v>1.163263792977203e-136</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>1.226291548923654e-136</v>
+        <v>1.080574034735184e-136</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>1.139481723423446e-136</v>
+        <v>1.001648989731236e-136</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>1.055738972754528e-136</v>
+        <v>9.265515327143868e-137</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>9.752797505282263e-137</v>
+        <v>8.55344538433666e-137</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>8.983205103558658e-137</v>
+        <v>7.880908816381018e-137</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>8.250777058487724e-137</v>
+        <v>7.248534370767225e-137</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>7.557677906182716e-137</v>
+        <v>6.656950794985571e-137</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>6.906072182756883e-137</v>
+        <v>6.106786836526336e-137</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>6.298124424323486e-137</v>
+        <v>5.59867124287981e-137</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>5.735999166995776e-137</v>
+        <v>5.133232761536279e-137</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>5.221860946887007e-137</v>
+        <v>4.711100139986025e-137</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>4.757874300110438e-137</v>
+        <v>4.332902125719339e-137</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>4.34620376277932e-137</v>
+        <v>3.999267466226501e-137</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>3.988979977223389e-137</v>
+        <v>3.710802011724725e-137</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>3.685825318467435e-137</v>
+        <v>3.466417128208436e-137</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>3.43217366911933e-137</v>
+        <v>3.262194605133819e-137</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>3.223061022705079e-137</v>
+        <v>3.093947434141764e-137</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>3.053523372751066e-137</v>
+        <v>2.957488606873458e-137</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>2.91859671278354e-137</v>
+        <v>2.848631114969988e-137</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>2.813317036328751e-137</v>
+        <v>2.763187950072437e-137</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>2.732720336912948e-137</v>
+        <v>2.696972103821888e-137</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>2.671842608062378e-137</v>
+        <v>2.645796567859424e-137</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>2.625719843303294e-137</v>
+        <v>2.605474333826129e-137</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>2.589388036161943e-137</v>
+        <v>2.571818393363086e-137</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>2.557883180164574e-137</v>
+        <v>2.540641738111378e-137</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>2.526241268837436e-137</v>
+        <v>2.50775735971209e-137</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>2.489498295706781e-137</v>
+        <v>2.468978249806303e-137</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>2.442800808610791e-137</v>
+        <v>2.42021344645149e-137</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>2.384131507421329e-137</v>
+        <v>2.359835955273608e-137</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>2.314482506681178e-137</v>
+        <v>2.288833275078527e-137</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>2.234991165972892e-137</v>
+        <v>2.208319089398202e-137</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>2.146794844879023e-137</v>
+        <v>2.119407081764582e-137</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>2.051030902982121e-137</v>
+        <v>2.023210935709615e-137</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>1.948836699864741e-137</v>
+        <v>1.920844334765253e-137</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>1.841349595109436e-137</v>
+        <v>1.813420962463447e-137</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>1.729706948298756e-137</v>
+        <v>1.702054502336146e-137</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>1.615046119015257e-137</v>
+        <v>1.587858637915301e-137</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>1.49850446684149e-137</v>
+        <v>1.47194705273286e-137</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>1.381219351360007e-137</v>
+        <v>1.355433430320777e-137</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>1.26432813215336e-137</v>
+        <v>1.239431454210999e-137</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>1.148968168804105e-137</v>
+        <v>1.125054807935477e-137</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>1.036276820894791e-137</v>
+        <v>1.013417175026162e-137</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>9.273914480080762e-138</v>
+        <v>9.056322390151066e-138</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>8.234494097262023e-138</v>
+        <v>8.028136834339537e-138</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>7.255880656321236e-138</v>
+        <v>7.060751918150506e-138</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>6.34944775308099e-138</v>
+        <v>6.165304476900573e-138</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>5.525664808612492e-138</v>
+        <v>5.35204165196739e-138</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>4.785567268738527e-138</v>
+        <v>4.621927699328359e-138</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>4.124579374938297e-138</v>
+        <v>3.970405536870932e-138</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>3.538051054993679e-138</v>
+        <v>3.392844958956388e-138</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>3.021332236686555e-138</v>
+        <v>2.884615759946012e-138</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>2.569772847798802e-138</v>
+        <v>2.441087734201088e-138</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>2.178722816112299e-138</v>
+        <v>2.057630676082897e-138</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>1.843532069408927e-138</v>
+        <v>1.729614379952724e-138</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>1.559550535470563e-138</v>
+        <v>1.452408640171851e-138</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>1.322128142079088e-138</v>
+        <v>1.221383251101563e-138</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>1.12661481701638e-138</v>
+        <v>1.031908007103142e-138</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>9.683604880643178e-139</v>
+        <v>8.793527025378708e-139</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>8.427150830047814e-139</v>
+        <v>7.590871317670339e-139</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>7.450285296196495e-139</v>
+        <v>6.664810891519137e-139</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>6.706507556908012e-139</v>
+        <v>5.969043690537939e-139</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>6.149316890001155e-139</v>
+        <v>5.457267658339571e-139</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>5.732212573294717e-139</v>
+        <v>5.083180738536872e-139</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>5.40869388460749e-139</v>
+        <v>4.800480874742673e-139</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>5.132319106923883e-139</v>
+        <v>4.562924821701553e-139</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>4.869652126530869e-139</v>
+        <v>4.33723216955225e-139</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>4.616521753575653e-139</v>
+        <v>4.119291196882405e-139</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>4.372755210604958e-139</v>
+        <v>3.908975446212985e-139</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>4.138179720165496e-139</v>
+        <v>3.706158460064951e-139</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>3.912622504803991e-139</v>
+        <v>3.510713780959275e-139</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>3.695910787067159e-139</v>
+        <v>3.322514951416917e-139</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>3.487871789501719e-139</v>
+        <v>3.141435513958845e-139</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>3.288332734654386e-139</v>
+        <v>2.967349011106022e-139</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>3.097120845071884e-139</v>
+        <v>2.800128985379414e-139</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>2.914063343300927e-139</v>
+        <v>2.639648979299988e-139</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>2.738987451888235e-139</v>
+        <v>2.485782535388707e-139</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>2.571720393380527e-139</v>
+        <v>2.338403196166537e-139</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>2.412089390324519e-139</v>
+        <v>2.197384504154442e-139</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>2.259921665266931e-139</v>
+        <v>2.06260000187339e-139</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>2.115044440754617e-139</v>
+        <v>1.933923231844465e-139</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>1.977284939333887e-139</v>
+        <v>1.811227736588269e-139</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>1.846470383551991e-139</v>
+        <v>1.694387058626242e-139</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>1.722427995955258e-139</v>
+        <v>1.583274740479002e-139</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>1.604984999090537e-139</v>
+        <v>1.477764324667628e-139</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>1.493968615504545e-139</v>
+        <v>1.377729353713087e-139</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>1.389206067744002e-139</v>
+        <v>1.283043370136345e-139</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>1.290524578355624e-139</v>
+        <v>1.193579916458365e-139</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>1.197751369886131e-139</v>
+        <v>1.109212535200114e-139</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>1.110713664882242e-139</v>
+        <v>1.029814768882556e-139</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>1.029238685890673e-139</v>
+        <v>9.552601600266577e-140</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>9.531536554581438e-140</v>
+        <v>8.854222511533823e-140</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>8.822857961313728e-140</v>
+        <v>8.201745847836968e-140</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>8.164623304570774e-140</v>
+        <v>7.593907034385652e-140</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>7.55510480981977e-140</v>
+        <v>7.029441496389533e-140</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>6.992574702527894e-140</v>
+        <v>6.507084659058264e-140</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>6.475305208162328e-140</v>
+        <v>6.025571947601492e-140</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>6.001568552190255e-140</v>
+        <v>5.583638787228875e-140</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>5.569636960078859e-140</v>
+        <v>5.180020603150061e-140</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>5.177782657295324e-140</v>
+        <v>4.813452820574701e-140</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>4.824277869306835e-140</v>
+        <v>4.482670864712453e-140</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>4.507394821580571e-140</v>
+        <v>4.186410160772964e-140</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>4.225405739583716e-140</v>
+        <v>3.923406133965886e-140</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>3.97657079944354e-140</v>
+        <v>3.69235513653567e-140</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>3.759037924011194e-140</v>
+        <v>3.491589511711908e-140</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>3.570893953033005e-140</v>
+        <v>3.319243525647246e-140</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>3.41022511472066e-140</v>
+        <v>3.173449461441995e-140</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>3.275117637285848e-140</v>
+        <v>3.052339602196463e-140</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>3.163657748940257e-140</v>
+        <v>2.954046231010963e-140</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>3.073931677895574e-140</v>
+        <v>2.876701630985802e-140</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>3.00402565236349e-140</v>
+        <v>2.818438085221296e-140</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>2.95202590055569e-140</v>
+        <v>2.777387876817751e-140</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>2.916018650683865e-140</v>
+        <v>2.751683288875481e-140</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>2.8940901309597e-140</v>
+        <v>2.739456604494793e-140</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>2.884326569594887e-140</v>
+        <v>2.738840106776e-140</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>2.884814194801112e-140</v>
+        <v>2.747966078819413e-140</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>2.893639234790064e-140</v>
+        <v>2.764966803725341e-140</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>2.908887917773413e-140</v>
+        <v>2.787974564594071e-140</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>2.9286464719629e-140</v>
+        <v>2.815121644525988e-140</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>2.951001125570139e-140</v>
+        <v>2.844540326621298e-140</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>2.974038106806879e-140</v>
+        <v>2.874362893980396e-140</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>2.995843643884789e-140</v>
+        <v>2.902721629703564e-140</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>3.014503965015558e-140</v>
+        <v>2.927748816891114e-140</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>3.028105298410872e-140</v>
+        <v>2.947576738643356e-140</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>3.034733872282421e-140</v>
+        <v>2.960337678060599e-140</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>3.032475914841892e-140</v>
+        <v>2.964163918243156e-140</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>3.019420466659085e-140</v>
+        <v>2.957190444958633e-140</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>2.994391115762323e-140</v>
+        <v>2.938258141771219e-140</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>2.957924107865467e-140</v>
+        <v>2.907853750892487e-140</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>2.9107993068136e-140</v>
+        <v>2.86669813079163e-140</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>2.853796576451804e-140</v>
+        <v>2.815512139937844e-140</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>2.787695780625161e-140</v>
+        <v>2.755016636800322e-140</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>2.71327678317875e-140</v>
+        <v>2.685932479848255e-140</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>2.631319447957654e-140</v>
+        <v>2.60898052755084e-140</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>2.542603638806955e-140</v>
+        <v>2.524881638377268e-140</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>2.447909219571734e-140</v>
+        <v>2.434356670796735e-140</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>2.348016054097072e-140</v>
+        <v>2.338126483278433e-140</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>2.243704006228052e-140</v>
+        <v>2.236911934291556e-140</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>2.135752939809752e-140</v>
+        <v>2.131433882305298e-140</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>2.024942718687258e-140</v>
+        <v>2.022413185788853e-140</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>1.912054099662968e-140</v>
+        <v>1.910572961133163e-140</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>1.797913596018215e-140</v>
+        <v>1.796752024042705e-140</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>1.683414478571059e-140</v>
+        <v>1.681957992571986e-140</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>1.569455300084928e-140</v>
+        <v>1.567211840642653e-140</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>1.456934613323253e-140</v>
+        <v>1.453534542176356e-140</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>1.346750971049464e-140</v>
+        <v>1.341947071094745e-140</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>1.23980292602699e-140</v>
+        <v>1.233470401319469e-140</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>1.13698903101926e-140</v>
+        <v>1.129125506772176e-140</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>1.039207838789705e-140</v>
+        <v>1.029933361374516e-140</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>9.473579021017546e-141</v>
+        <v>9.369149390481375e-141</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>8.622228490477217e-141</v>
+        <v>8.509616272323404e-141</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>7.838038253432954e-141</v>
+        <v>7.720825037830898e-141</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>7.117758280574869e-141</v>
+        <v>6.999188886551509e-141</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>6.458127745240489e-141</v>
+        <v>6.341108843180194e-141</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>5.855885820767335e-141</v>
+        <v>5.742985932411905e-141</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>5.307771680492932e-141</v>
+        <v>5.201221178941608e-141</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>4.810524497755262e-141</v>
+        <v>4.712215607464703e-141</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>4.360883445890889e-141</v>
+        <v>4.272370242675208e-141</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>3.955587698237839e-141</v>
+        <v>3.878086109268577e-141</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>3.59137642813364e-141</v>
+        <v>3.525764231939767e-141</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>3.264988808915813e-141</v>
+        <v>3.211805635383737e-141</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>2.973164013921883e-141</v>
+        <v>2.932611344295444e-141</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>2.712641216489373e-141</v>
+        <v>2.684582383369845e-141</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>2.480159589955806e-141</v>
+        <v>2.464119777301899e-141</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>2.272458307658708e-141</v>
+        <v>2.267624550786563e-141</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>2.086276542935601e-141</v>
+        <v>2.091497728518795e-141</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>1.91835346912401e-141</v>
+        <v>1.932140335193551e-141</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>1.765428259561457e-141</v>
+        <v>1.78595339550579e-141</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>1.624275617623347e-141</v>
+        <v>1.649381268104553e-141</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>1.492906860113041e-141</v>
+        <v>1.520376538274842e-141</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>1.3708607198971e-141</v>
+        <v>1.398754693271362e-141</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>1.257770434869935e-141</v>
+        <v>1.284446482723472e-141</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>1.153269242925955e-141</v>
+        <v>1.177382656260534e-141</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>1.056990381959572e-141</v>
+        <v>1.077493963511907e-141</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>9.685670898651975e-142</v>
+        <v>9.847111541069534e-142</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>8.876326045372423e-142</v>
+        <v>8.989649776750324e-142</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>8.138201638701174e-142</v>
+        <v>8.201861838455049e-142</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>7.467630057582339e-142</v>
+        <v>7.483055222477316e-142</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>6.860943680960023e-142</v>
+        <v>6.832537425110728e-142</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>6.314474887778345e-142</v>
+        <v>6.249615942648899e-142</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>5.824294589988346e-142</v>
+        <v>5.7327460579031e-142</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>5.385169976385874e-142</v>
+        <v>5.276133758440692e-142</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>4.991462696226326e-142</v>
+        <v>4.872663234917144e-142</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>4.637534269758271e-142</v>
+        <v>4.515218257509028e-142</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>4.317746217230279e-142</v>
+        <v>4.196682596392915e-142</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>4.026460058890922e-142</v>
+        <v>3.909940021745377e-142</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>3.758037314988769e-142</v>
+        <v>3.647874303742987e-142</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>3.50697901218142e-142</v>
+        <v>3.403548950434106e-142</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>3.270401276432769e-142</v>
+        <v>3.173396722843375e-142</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>3.047742757071844e-142</v>
+        <v>2.956842684712829e-142</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>2.838522836303264e-142</v>
+        <v>2.753415914756598e-142</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>2.642260896331651e-142</v>
+        <v>2.562645491688813e-142</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>2.458476319361627e-142</v>
+        <v>2.384060494223605e-142</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>2.286688487597975e-142</v>
+        <v>2.217190001075261e-142</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>2.126416783244983e-142</v>
+        <v>2.06156309095759e-142</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>1.977180588507445e-142</v>
+        <v>1.91670884258489e-142</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>1.838499285589984e-142</v>
+        <v>1.782156334671293e-142</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>1.709892256697221e-142</v>
+        <v>1.65743464593093e-142</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>1.590878884033776e-142</v>
+        <v>1.542072855077931e-142</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>1.480978549804272e-142</v>
+        <v>1.435600040826429e-142</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>1.379710636213331e-142</v>
+        <v>1.337545281890554e-142</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>1.286594525465573e-142</v>
+        <v>1.247437656984438e-142</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>1.201149599765622e-142</v>
+        <v>1.164806244822212e-142</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>1.122895241318097e-142</v>
+        <v>1.089180124118007e-142</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>1.051350832327621e-142</v>
+        <v>1.020088373585954e-142</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>9.860357549988162e-143</v>
+        <v>9.570600719401848e-143</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>9.264693915363032e-143</v>
+        <v>8.996242978948305e-143</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>8.721711241447038e-143</v>
+        <v>8.473101301640221e-143</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>8.2266033502864e-143</v>
+        <v>7.996466474618912e-143</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>7.77456406392733e-143</v>
+        <v>7.561629285025687e-143</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>7.360787204416044e-143</v>
+        <v>7.16388052000186e-143</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>6.98046659379876e-143</v>
+        <v>6.798510966688742e-143</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>6.628796054121697e-143</v>
+        <v>6.460811412227647e-143</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>6.300969407431064e-143</v>
+        <v>6.146072643759886e-143</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>5.992180475773085e-143</v>
+        <v>5.849585448426774e-143</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>5.69779281744856e-143</v>
+        <v>5.566807386844571e-143</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>5.41562535455464e-143</v>
+        <v>5.295608524568906e-143</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>5.145344899172915e-143</v>
+        <v>5.035674561857483e-143</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>4.886663419709091e-143</v>
+        <v>4.786735567079619e-143</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>4.639292884568874e-143</v>
+        <v>4.548521608604638e-143</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>4.402945262157971e-143</v>
+        <v>4.320762754801854e-143</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>4.177332520882087e-143</v>
+        <v>4.103189074040592e-143</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>3.962166629146929e-143</v>
+        <v>3.895530634690167e-143</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>3.757159555358203e-143</v>
+        <v>3.697517505119901e-143</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>3.562023267921616e-143</v>
+        <v>3.508879753699113e-143</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>3.376469735242872e-143</v>
+        <v>3.32934744879712e-143</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>3.200210925727677e-143</v>
+        <v>3.158650658783246e-143</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>3.03295880778174e-143</v>
+        <v>2.996519452026807e-143</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>2.874425349810764e-143</v>
+        <v>2.842683896897122e-143</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>2.724322520220457e-143</v>
+        <v>2.696874061763514e-143</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>2.582362287416659e-143</v>
+        <v>2.558820014995429e-143</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>2.4482566198048e-143</v>
+        <v>2.428251824961921e-143</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>2.321717485790729e-143</v>
+        <v>2.304899560032446e-143</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>2.20245685378015e-143</v>
+        <v>2.188493288576324e-143</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>2.09018669217877e-143</v>
+        <v>2.078763078962875e-143</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>1.984618969392297e-143</v>
+        <v>1.975438999561416e-143</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>1.885465653826435e-143</v>
+        <v>1.87825111874127e-143</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>1.792438713886891e-143</v>
+        <v>1.786929504871754e-143</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>1.70525011797937e-143</v>
+        <v>1.701204226322187e-143</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>1.62361183450958e-143</v>
+        <v>1.62080535146189e-143</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>1.547235831883225e-143</v>
+        <v>1.545462948660182e-143</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>1.475834078506013e-143</v>
+        <v>1.474907086286383e-143</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>1.409118542783648e-143</v>
+        <v>1.40886783270981e-143</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>1.346801193121839e-143</v>
+        <v>1.347075256299785e-143</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>1.288593997926289e-143</v>
+        <v>1.289259425425627e-143</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>1.234208925602707e-143</v>
+        <v>1.235150408456656e-143</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>1.183357944556797e-143</v>
+        <v>1.184478273762189e-143</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>1.135753023194266e-143</v>
+        <v>1.136973089711547e-143</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>1.091106129920819e-143</v>
+        <v>1.09236492467405e-143</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>1.049129233142164e-143</v>
+        <v>1.050383847019016e-143</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>1.009534301264006e-143</v>
+        <v>1.010759925115766e-143</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>9.720333026920517e-144</v>
+        <v>9.732232273336187e-144</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>9.363394832668456e-144</v>
+        <v>9.375049784106971e-144</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>9.022455977083249e-144</v>
+        <v>9.03408376687941e-144</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>8.696693144108748e-144</v>
+        <v>8.708496957660603e-144</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>8.385392452025374e-144</v>
+        <v>8.397551155399226e-144</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>8.087840019113546e-144</v>
+        <v>8.100508159043959e-144</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>7.803321963653682e-144</v>
+        <v>7.816629767543481e-144</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>7.531124403926203e-144</v>
+        <v>7.545177779846469e-144</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>7.270533458211525e-144</v>
+        <v>7.285413994901597e-144</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>7.02083524479007e-144</v>
+        <v>7.036600211657551e-144</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>6.781315881942258e-144</v>
+        <v>6.797998229063007e-144</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>6.551261487948506e-144</v>
+        <v>6.568869846066642e-144</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>6.32995818108923e-144</v>
+        <v>6.34847686161713e-144</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>6.116692079644856e-144</v>
+        <v>6.136081074663157e-144</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>5.910749301895795e-144</v>
+        <v>5.930944284153396e-144</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>5.711415966122473e-144</v>
+        <v>5.732328289036527e-144</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>5.517978190605491e-144</v>
+        <v>5.539494888261413e-144</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>5.329722093624893e-144</v>
+        <v>5.351705880776358e-144</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>5.14593379346129e-144</v>
+        <v>5.168223065530229e-144</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>4.9658994083951e-144</v>
+        <v>4.988308241471705e-144</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>4.788920433526122e-144</v>
+        <v>4.81123929576205e-144</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>4.614740724294117e-144</v>
+        <v>4.636756941262199e-144</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>4.443602222072233e-144</v>
+        <v>4.465123020215166e-144</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>4.275773439377513e-144</v>
+        <v>4.296627175295314e-144</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>4.111522888726999e-144</v>
+        <v>4.131559049177006e-144</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>3.951119082637735e-144</v>
+        <v>3.970208284534609e-144</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>3.794830533626761e-144</v>
+        <v>3.812864524042482e-144</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>3.642925754211121e-144</v>
+        <v>3.659817410374992e-144</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>3.495673256907856e-144</v>
+        <v>3.5113565862065e-144</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>3.353341554234008e-144</v>
+        <v>3.36777169421137e-144</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>3.216199158706622e-144</v>
+        <v>3.229352377063967e-144</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>3.084514582842737e-144</v>
+        <v>3.096388277438651e-144</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>2.958556339159397e-144</v>
+        <v>2.96916903800979e-144</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>2.838592940173643e-144</v>
+        <v>2.847984301451744e-144</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>2.724892898402519e-144</v>
+        <v>2.733123710438879e-144</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>2.61771345835702e-144</v>
+        <v>2.624865420653852e-144</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>2.516902451438732e-144</v>
+        <v>2.52307021801823e-144</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>2.421791861701133e-144</v>
+        <v>2.427073015980297e-144</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>2.331680761368445e-144</v>
+        <v>2.336175176541157e-144</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>2.24586822266489e-144</v>
+        <v>2.249678061701918e-144</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>2.163653317814689e-144</v>
+        <v>2.166883033463685e-144</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>2.084335119042067e-144</v>
+        <v>2.087091453827567e-144</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>2.007212698571243e-144</v>
+        <v>2.009604684794668e-144</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>1.93158512862644e-144</v>
+        <v>1.933724088366094e-144</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>1.856751481431879e-144</v>
+        <v>1.858751026542954e-144</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>1.782022610562752e-144</v>
+        <v>1.783998417842377e-144</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>1.70713130336037e-144</v>
+        <v>1.709193062376446e-144</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>1.63233845668042e-144</v>
+        <v>1.634579791345698e-144</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>1.557938319810357e-144</v>
+        <v>1.560436151885646e-144</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>1.484225142037639e-144</v>
+        <v>1.4870396911318e-144</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>1.411493172649719e-144</v>
+        <v>1.414667956219671e-144</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>1.340036660934056e-144</v>
+        <v>1.343598494284771e-144</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>1.270149856178104e-144</v>
+        <v>1.274108852462613e-144</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>1.202127007669384e-144</v>
+        <v>1.206476577888771e-144</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>1.136262364695221e-144</v>
+        <v>1.140979217698627e-144</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>1.072850176543136e-144</v>
+        <v>1.077894319027757e-144</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>1.012184692500586e-144</v>
+        <v>1.017499429011674e-144</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>9.545601618550277e-145</v>
+        <v>9.600720947858896e-145</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>9.002085377093974e-145</v>
+        <v>9.058303540391509e-145</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>8.490185300742655e-145</v>
+        <v>8.546643558954395e-145</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>8.007612672968002e-145</v>
+        <v>8.063519276761632e-145</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>7.552077736843639e-145</v>
+        <v>7.606707973170074e-145</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>7.121290735443192e-145</v>
+        <v>7.173986927536571e-145</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>6.712961911840282e-145</v>
+        <v>6.763133419217985e-145</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>6.324801509108534e-145</v>
+        <v>6.371924727571166e-145</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>5.954519770321573e-145</v>
+        <v>5.998138131952971e-145</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>5.599826938553023e-145</v>
+        <v>5.639550911720251e-145</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>5.258433256876507e-145</v>
+        <v>5.293940346229863e-145</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>4.928049058263287e-145</v>
+        <v>4.959083811118649e-145</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>4.607000924004279e-145</v>
+        <v>4.633418681351198e-145</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>4.295703128275473e-145</v>
+        <v>4.317618242087309e-145</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>3.995011612356361e-145</v>
+        <v>4.012828802075003e-145</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>3.705782317526424e-145</v>
+        <v>3.720196670062292e-145</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>3.428871185065153e-145</v>
+        <v>3.440868154797193e-145</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>3.165129224678116e-145</v>
+        <v>3.175973557596018e-145</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>2.915261800656568e-145</v>
+        <v>2.926170428263623e-145</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>2.679808105134653e-145</v>
+        <v>2.691576937189409e-145</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>2.459298270938603e-145</v>
+        <v>2.472281849089234e-145</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>2.254262430894651e-145</v>
+        <v>2.268373928678959e-145</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>2.065066586179951e-145</v>
+        <v>2.079834569300835e-145</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>1.891107005722665e-145</v>
+        <v>1.90601078644135e-145</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>1.73142508799199e-145</v>
+        <v>1.746017447010864e-145</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>1.585061701249975e-145</v>
+        <v>1.598969071069689e-145</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>1.451057713758672e-145</v>
+        <v>1.463980178678142e-145</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>1.328453993780132e-145</v>
+        <v>1.340165289896538e-145</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>1.216291409576406e-145</v>
+        <v>1.226638924785193e-145</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>1.113610829409545e-145</v>
+        <v>1.12251560340442e-145</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>1.0194531215416e-145</v>
+        <v>1.026909845814536e-145</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>9.328591542347016e-146</v>
+        <v>9.389361720759367e-146</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>8.528697957506599e-146</v>
+        <v>8.577091022486922e-146</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>7.785788620692812e-146</v>
+        <v>7.82389049401556e-146</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>7.095371484210857e-146</v>
+        <v>7.1253251832304e-146</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>6.455291186872634e-146</v>
+        <v>6.478985486380001e-146</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>5.863411198628266e-146</v>
+        <v>5.882478121805462e-146</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>5.317594989430456e-146</v>
+        <v>5.333409807850489e-146</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>4.81570602923125e-146</v>
+        <v>4.82938726285813e-146</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>4.355607787982707e-146</v>
+        <v>4.368017205171439e-146</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>3.935163735636883e-146</v>
+        <v>3.946906353133469e-146</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>3.552237342145829e-146</v>
+        <v>3.563661425087271e-146</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>3.20469168601036e-146</v>
+        <v>3.2158917301383e-146</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>2.890375414658457e-146</v>
+        <v>2.901302087322782e-146</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>2.60711887181653e-146</v>
+        <v>2.617718456030817e-146</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>2.352751221487567e-146</v>
+        <v>2.362974603478285e-146</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>2.125101627674557e-146</v>
+        <v>2.134904296881068e-146</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>1.921999254380485e-146</v>
+        <v>1.931341303455049e-146</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>1.741273265608341e-146</v>
+        <v>1.750119390416108e-146</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>1.580752825361112e-146</v>
+        <v>1.589072324980126e-146</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>1.438267097641783e-146</v>
+        <v>1.446033874362986e-146</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>1.311645246453345e-146</v>
+        <v>1.318837805780568e-146</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>1.198716435798784e-146</v>
+        <v>1.205317886448753e-146</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>1.097309829681087e-146</v>
+        <v>1.103307883583425e-146</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>1.005254592103242e-146</v>
+        <v>1.010641564400462e-146</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>9.203798870682375e-147</v>
+        <v>9.251526961157487e-147</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>8.405156260142714e-147</v>
+        <v>8.446757971291269e-147</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>7.641922106802527e-147</v>
+        <v>7.677493894402653e-147</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>6.919402452052853e-147</v>
+        <v>6.949222294356459e-147</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>6.24645030602947e-147</v>
+        <v>6.270995493533405e-147</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>5.631918678868149e-147</v>
+        <v>5.651865814314208e-147</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>5.084660580704666e-147</v>
+        <v>5.100885579079586e-147</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>4.613529021674795e-147</v>
+        <v>4.627107110210256e-147</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>4.227377011914309e-147</v>
+        <v>4.239582730086937e-147</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>3.927322991330485e-147</v>
+        <v>3.939446350175876e-147</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>3.675023655800251e-147</v>
+        <v>3.687432183524075e-147</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>3.427832646413159e-147</v>
+        <v>3.439883466083223e-147</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>3.180637644296225e-147</v>
+        <v>3.191634933748517e-147</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>2.938998333313536e-147</v>
+        <v>2.948465555829622e-147</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>2.708475141826559e-147</v>
+        <v>2.716155065124891e-147</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>2.494628498198333e-147</v>
+        <v>2.500483194434255e-147</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>2.303018830790194e-147</v>
+        <v>2.30722967655593e-147</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>2.13920656796503e-147</v>
+        <v>2.142174244289698e-147</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>2.008477965120443e-147</v>
+        <v>2.0108136728589e-147</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>1.909257330082225e-147</v>
+        <v>1.911562930377475e-147</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>1.832783156904292e-147</v>
+        <v>1.835420934847656e-147</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>1.769954950248131e-147</v>
+        <v>1.773036753523889e-147</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>1.71167221477523e-147</v>
+        <v>1.715059453660618e-147</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>1.649749547677576e-147</v>
+        <v>1.653086369929463e-147</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>1.582538996921121e-147</v>
+        <v>1.585489290244472e-147</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>1.511236687696021e-147</v>
+        <v>1.513587186191029e-147</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>1.437050416881331e-147</v>
+        <v>1.438711124177629e-147</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>1.361187981356112e-147</v>
+        <v>1.362192170612773e-147</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>1.284853277542065e-147</v>
+        <v>1.285356745535346e-147</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>1.208943430535816e-147</v>
+        <v>1.209165831592471e-147</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>1.133832723900142e-147</v>
+        <v>1.133957583184896e-147</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>1.05984443723744e-147</v>
+        <v>1.060009396902167e-147</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>9.873018501501101e-148</v>
+        <v>9.875986693338351e-148</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>9.165282422405502e-148</v>
+        <v>9.170027970694468e-148</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>8.478414170678816e-148</v>
+        <v>8.484953384032201e-148</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>7.814767466572243e-148</v>
+        <v>7.822920733109635e-148</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>7.176058936213905e-148</v>
+        <v>7.185641262521884e-148</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>6.563988670388984e-148</v>
+        <v>6.574814626829735e-148</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>5.980256759882664e-148</v>
+        <v>5.992140480593963e-148</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>5.426563295480125e-148</v>
+        <v>5.439318478375352e-148</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>4.904608367966553e-148</v>
+        <v>4.918048274734687e-148</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>4.416092068127128e-148</v>
+        <v>4.430029524232746e-148</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>3.962714486747032e-148</v>
+        <v>3.976961881430312e-148</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>3.546165173436648e-148</v>
+        <v>3.560534512743e-148</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>3.166919829720964e-148</v>
+        <v>3.181228843023508e-148</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>2.823129127241913e-148</v>
+        <v>2.83721296380169e-148</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>2.512681079454722e-148</v>
+        <v>2.526393629778901e-148</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>2.233463699814626e-148</v>
+        <v>2.246677595656499e-148</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>1.983365001776854e-148</v>
+        <v>1.995971616135841e-148</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>1.760272998796639e-148</v>
+        <v>1.77218244591828e-148</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>1.562075704329392e-148</v>
+        <v>1.573216839705356e-148</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>1.386661131829803e-148</v>
+        <v>1.396981552197879e-148</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>1.231917294753786e-148</v>
+        <v>1.241383338097893e-148</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>1.095732206555969e-148</v>
+        <v>1.104328952106146e-148</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>9.759938806921147e-149</v>
+        <v>9.837251489245296e-149</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>8.705903306170838e-149</v>
+        <v>8.774786832540258e-149</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>7.774095697862309e-149</v>
+        <v>7.834963097961153e-149</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>6.943404478343921e-149</v>
+        <v>6.996856071999609e-149</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>6.196695054826918e-149</v>
+        <v>6.243460276984359e-149</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>5.527160753880451e-149</v>
+        <v>5.567947075788453e-149</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>4.929649778961773e-149</v>
+        <v>4.965118500311986e-149</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>4.399010333528135e-149</v>
+        <v>4.429776582455049e-149</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>3.93009062103679e-149</v>
+        <v>3.956723354117737e-149</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>3.517738844944992e-149</v>
+        <v>3.540760847200139e-149</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>3.156803208709995e-149</v>
+        <v>3.176691093602352e-149</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>2.842131915789051e-149</v>
+        <v>2.859316125224467e-149</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>2.568573169639411e-149</v>
+        <v>2.583437973966575e-149</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>2.330975173718331e-149</v>
+        <v>2.343858671728772e-149</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>2.124186131483062e-149</v>
+        <v>2.135380250411149e-149</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>1.943054246390859e-149</v>
+        <v>1.952804741913798e-149</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>1.782427721898972e-149</v>
+        <v>1.790934178136815e-149</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>1.637490409635662e-149</v>
+        <v>1.644906787999342e-149</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>1.506026882532963e-149</v>
+        <v>1.512465774394013e-149</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>1.387036064785058e-149</v>
+        <v>1.392570677168893e-149</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>1.279523733257341e-149</v>
+        <v>1.284187900048667e-149</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>1.182495664815205e-149</v>
+        <v>1.186283846758022e-149</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>1.094957636324047e-149</v>
+        <v>1.097824921021643e-149</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>1.015915424649259e-149</v>
+        <v>1.017777526564216e-149</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>9.443748066562351e-150</v>
+        <v>9.451080671104278e-150</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>8.793415592103708e-150</v>
+        <v>8.787829463849634e-150</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>8.197607371980491e-150</v>
+        <v>8.177550310418086e-150</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>7.642579371740819e-150</v>
+        <v>7.60905969205993e-150</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>7.113540710014665e-150</v>
+        <v>7.07094071092659e-150</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>6.595699898212217e-150</v>
+        <v>6.551776333798776e-150</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>6.074267908847262e-150</v>
+        <v>6.040151573786473e-150</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>5.556593124690028e-150</v>
+        <v>5.543057995659045e-150</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>5.118521537619898e-150</v>
+        <v>5.123845232658638e-150</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>4.757567973892482e-150</v>
+        <v>4.773346530763012e-150</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>4.407714282469907e-150</v>
+        <v>4.424685405157492e-150</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>4.036601242429363e-150</v>
+        <v>4.046636755283034e-150</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>3.668918142533811e-150</v>
+        <v>3.668105148326875e-150</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>3.334630528962726e-150</v>
+        <v>3.323556376600973e-150</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>3.061769043524474e-150</v>
+        <v>3.045271434823948e-150</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>2.846438829091072e-150</v>
+        <v>2.829482635261757e-150</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>2.658553154220069e-150</v>
+        <v>2.642847730926637e-150</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>2.469345466231432e-150</v>
+        <v>2.453486710750018e-150</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>2.273312260221031e-150</v>
+        <v>2.255471079207812e-150</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>2.079459864126949e-150</v>
+        <v>2.059059048389657e-150</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>1.897010977127816e-150</v>
+        <v>1.874750106341396e-150</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>1.732501355190281e-150</v>
+        <v>1.709978731989179e-150</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>1.585124313066072e-150</v>
+        <v>1.563803846047086e-150</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>1.4528304235169e-150</v>
+        <v>1.433866767429567e-150</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>1.333570259304479e-150</v>
+        <v>1.317808815051067e-150</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>1.22529439319052e-150</v>
+        <v>1.213271307826034e-150</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>1.125953397936736e-150</v>
+        <v>1.117895564668915e-150</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>1.033497846304838e-150</v>
+        <v>1.029322904494159e-150</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>9.458783110565408e-151</v>
+        <v>9.451946462162118e-151</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>8.610453649535542e-151</v>
+        <v>8.631521087495212e-151</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>7.774045670860808e-151</v>
+        <v>7.813318442561061e-151</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>6.968868722998982e-151</v>
+        <v>7.017076480846231e-151</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>6.230693436874224e-151</v>
+        <v>6.280450343273306e-151</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>5.595383334478903e-151</v>
+        <v>5.641196278737784e-151</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>5.098801937805391e-151</v>
+        <v>5.137070536135173e-151</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>4.776804539405389e-151</v>
+        <v>4.805820961167449e-151</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>4.648632236339997e-151</v>
+        <v>4.66823041908909e-151</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>4.682067456614709e-151</v>
+        <v>4.692536629957752e-151</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>4.834960112105442e-151</v>
+        <v>4.836835086840439e-151</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>5.065160114688111e-151</v>
+        <v>5.059221282804153e-151</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>5.330517376238634e-151</v>
+        <v>5.317790710915898e-151</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>5.588881808632929e-151</v>
+        <v>5.57063886424268e-151</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>5.798103323746911e-151</v>
+        <v>5.775861235851503e-151</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>5.916031833456497e-151</v>
+        <v>5.891553318809368e-151</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>5.904661967792948e-151</v>
+        <v>5.879919656205532e-151</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>5.772446385909836e-151</v>
+        <v>5.749223017151855e-151</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>5.557011704809938e-151</v>
+        <v>5.536649066758527e-151</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>5.296436106762471e-151</v>
+        <v>5.279831149374376e-151</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>5.028797774038321e-151</v>
+        <v>5.016402609349878e-151</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>4.792001162361005e-151</v>
+        <v>4.783824111484714e-151</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>4.604426911832862e-151</v>
+        <v>4.600150168999589e-151</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>4.447317184557937e-151</v>
+        <v>4.446520639320949e-151</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>4.29775400538437e-151</v>
+        <v>4.299940314489251e-151</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>4.132819399160101e-151</v>
+        <v>4.137413986544757e-151</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>3.929769690153977e-151</v>
+        <v>3.936121659498345e-151</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>3.678760014551039e-151</v>
+        <v>3.686209681383777e-151</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>3.391484909776848e-151</v>
+        <v>3.3994765716399e-151</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>3.081685065361975e-151</v>
+        <v>3.089777714499704e-151</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>2.763101170836987e-151</v>
+        <v>2.770968494196179e-151</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>2.449473915732455e-151</v>
+        <v>2.456904294962318e-151</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>2.154543989578947e-151</v>
+        <v>2.161440501031109e-151</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>1.890820682932184e-151</v>
+        <v>1.897192325279472e-151</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>1.660620600682667e-151</v>
+        <v>1.666509683096158e-151</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>1.4612267323127e-151</v>
+        <v>1.466673015415066e-151</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>1.289886461586586e-151</v>
+        <v>1.294926903799998e-151</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>1.143847172268631e-151</v>
+        <v>1.148515929814757e-151</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>1.020356248123139e-151</v>
+        <v>1.024684675023146e-151</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>9.166610729144136e-152</v>
+        <v>9.206777209889684e-152</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>8.300090304067605e-152</v>
+        <v>8.337396492760268e-152</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>7.576475043644839e-152</v>
+        <v>7.611150414481235e-152</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>6.968238785518879e-152</v>
+        <v>7.000484790690621e-152</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>6.447855367332777e-152</v>
+        <v>6.477845437026455e-152</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>5.987798626729569e-152</v>
+        <v>6.01567816912676e-152</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>5.561605427630655e-152</v>
+        <v>5.587492820045989e-152</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>5.157598463682436e-152</v>
+        <v>5.181598838486935e-152</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>4.774935565299407e-152</v>
+        <v>4.797150912320384e-152</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>4.413023435212056e-152</v>
+        <v>4.433552833775199e-152</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>4.071268776150869e-152</v>
+        <v>4.090208395080235e-152</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>3.749078290846335e-152</v>
+        <v>3.766521388464354e-152</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>3.445858682028939e-152</v>
+        <v>3.461895606156415e-152</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>3.161016652429172e-152</v>
+        <v>3.175734840385279e-152</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>2.893958904777522e-152</v>
+        <v>2.907442883379803e-152</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>2.644092141804473e-152</v>
+        <v>2.656423527368848e-152</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>2.410823066240732e-152</v>
+        <v>2.422080564581493e-152</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>2.193558380816133e-152</v>
+        <v>2.20381778724594e-152</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>1.991704788262006e-152</v>
+        <v>2.001038987591894e-152</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>1.804668991308057e-152</v>
+        <v>1.81314795784743e-152</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>1.631857692685496e-152</v>
+        <v>1.639548490242136e-152</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>1.472677595124292e-152</v>
+        <v>1.479644377004345e-152</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>1.326535401355103e-152</v>
+        <v>1.332839410363094e-152</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>1.192837814108419e-152</v>
+        <v>1.19853738254724e-152</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>1.070991536114727e-152</v>
+        <v>1.076142085785644e-152</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>9.604032701045143e-153</v>
+        <v>9.650573123071659e-153</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>8.604797188082688e-153</v>
+        <v>8.646868543406649e-153</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>7.706275849564781e-153</v>
+        <v>7.744345041150007e-153</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>6.902535712796296e-153</v>
+        <v>6.937040538590325e-153</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>6.187643805082114e-153</v>
+        <v>6.218992958016204e-153</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>5.555667153727106e-153</v>
+        <v>5.584240221716237e-153</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>5.000672786036151e-153</v>
+        <v>5.026820251979021e-153</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>4.516727729314124e-153</v>
+        <v>4.540770971093151e-153</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>4.097899010865902e-153</v>
+        <v>4.120130301347224e-153</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>3.738253657996361e-153</v>
+        <v>3.758936165029836e-153</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>3.431858698010376e-153</v>
+        <v>3.451226484429582e-153</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>3.172781158212825e-153</v>
+        <v>3.191039181835059e-153</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>2.955088065908581e-153</v>
+        <v>2.972412179534863e-153</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>2.772846448402525e-153</v>
+        <v>2.789383399817589e-153</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>2.620123332999529e-153</v>
+        <v>2.635990764971834e-153</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>2.490985747004472e-153</v>
+        <v>2.506272197286194e-153</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>2.379500717722227e-153</v>
+        <v>2.394265619049264e-153</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>2.279735272457672e-153</v>
+        <v>2.29400895254964e-153</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>2.185771240626599e-153</v>
+        <v>2.199554998782058e-153</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>2.093574585077244e-153</v>
+        <v>2.106850441838644e-153</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>2.002821698200234e-153</v>
+        <v>2.015571595397936e-153</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>1.913622505241725e-153</v>
+        <v>1.925830549359582e-153</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>1.826086931447875e-153</v>
+        <v>1.837739393623225e-153</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>1.740324902064839e-153</v>
+        <v>1.75141021808851e-153</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>1.656446342338774e-153</v>
+        <v>1.666955112655083e-153</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>1.574561177515837e-153</v>
+        <v>1.584486167222588e-153</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>1.494779332842184e-153</v>
+        <v>1.504115471690671e-153</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>1.41721073356397e-153</v>
+        <v>1.425955115958977e-153</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>1.341965304927425e-153</v>
+        <v>1.350117189927223e-153</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>1.269152972178489e-153</v>
+        <v>1.276713783494837e-153</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>1.198883660563602e-153</v>
+        <v>1.20585698656175e-153</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>1.131267295328647e-153</v>
+        <v>1.13765888902733e-153</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>1.066413801720042e-153</v>
+        <v>1.072231580791488e-153</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>1.004433104983752e-153</v>
+        <v>1.009687151753674e-153</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>9.454351303659967e-154</v>
+        <v>9.501376918135981e-154</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>8.895298031129329e-154</v>
+        <v>8.936952908709054e-154</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>8.368270484707171e-154</v>
+        <v>8.404720388252412e-154</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>7.874367916855056e-154</v>
+        <v>7.905800255762505e-154</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>7.414689580034548e-154</v>
+        <v>7.441313410235781e-154</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>6.990334726707209e-154</v>
+        <v>7.012380750668691e-154</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>6.602402609334607e-154</v>
+        <v>6.620123176057689e-154</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>6.251992480378305e-154</v>
+        <v>6.265661585399224e-154</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>5.940203592299867e-154</v>
+        <v>5.950116877689746e-154</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>5.668135197560857e-154</v>
+        <v>5.674609951925707e-154</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>5.43688654862284e-154</v>
+        <v>5.440261707103555e-154</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>5.247556897947378e-154</v>
+        <v>5.248193042219742e-154</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>5.100818259748334e-154</v>
+        <v>5.099097155725099e-154</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>4.992639483019726e-154</v>
+        <v>4.988958991738154e-154</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>4.916075715200785e-154</v>
+        <v>4.910846640019339e-154</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>4.864138683665858e-154</v>
+        <v>4.857784723281031e-154</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>4.829840115789299e-154</v>
+        <v>4.822797864235618e-154</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>4.806191738945458e-154</v>
+        <v>4.798910685595481e-154</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>4.786205280508684e-154</v>
+        <v>4.779147810073005e-154</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>4.762892467853329e-154</v>
+        <v>4.756533860380571e-154</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>4.729265028353744e-154</v>
+        <v>4.724093459230565e-154</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>4.678334689384276e-154</v>
+        <v>4.674851229335367e-154</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>4.603861376269112e-154</v>
+        <v>4.602569904833623e-154</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>4.505546971228469e-154</v>
+        <v>4.506874072706917e-154</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>4.385926910817348e-154</v>
+        <v>4.390183674871851e-154</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>4.247554082271799e-154</v>
+        <v>4.254935868671875e-154</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>4.092981372827868e-154</v>
+        <v>4.103567811450446e-154</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>3.924761669721607e-154</v>
+        <v>3.938516660551015e-154</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>3.745447860189059e-154</v>
+        <v>3.762219573317033e-154</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>3.557592831466275e-154</v>
+        <v>3.577113707091954e-154</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>3.363749470789301e-154</v>
+        <v>3.38563621921923e-154</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>3.166470665394378e-154</v>
+        <v>3.190224267042506e-154</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>2.968309302516979e-154</v>
+        <v>2.993315007904661e-154</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>2.771818269393915e-154</v>
+        <v>2.797345599149909e-154</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>2.579550453260476e-154</v>
+        <v>2.604753198120945e-154</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>2.394058741353453e-154</v>
+        <v>2.417974962161966e-154</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>2.217599180143652e-154</v>
+        <v>2.239191443036811e-154</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>2.050589753652386e-154</v>
+        <v>2.068994269641324e-154</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>1.89274578723255e-154</v>
+        <v>1.907367653845295e-154</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>1.743781195165559e-154</v>
+        <v>1.754294587710264e-154</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>1.603409891732827e-154</v>
+        <v>1.609758063297773e-154</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>1.471345791215771e-154</v>
+        <v>1.47374107266936e-154</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>1.347302807895805e-154</v>
+        <v>1.346226607886569e-154</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>1.230994856054344e-154</v>
+        <v>1.227197661010937e-154</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>1.122135849972803e-154</v>
+        <v>1.116637224104006e-154</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>1.020444037568542e-154</v>
+        <v>1.01451963598588e-154</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>9.257316705644615e-155</v>
+        <v>9.206315322095659e-155</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>8.379019584843809e-155</v>
+        <v>8.345779272085668e-155</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>7.568618350799224e-155</v>
+        <v>7.559563990182275e-155</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>6.82518234102709e-155</v>
+        <v>6.843645256738929e-155</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>6.147780893043633e-155</v>
+        <v>6.193998852109081e-155</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>5.535483344365081e-155</v>
+        <v>5.606600556646183e-155</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>4.987359032507663e-155</v>
+        <v>5.077426150703684e-155</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>4.502477294987606e-155</v>
+        <v>4.602451414635039e-155</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>4.079901677703068e-155</v>
+        <v>4.177651869111719e-155</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>3.716807638707284e-155</v>
+        <v>3.798918377567991e-155</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>3.405775419835374e-155</v>
+        <v>3.461935765191313e-155</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>3.138699517053203e-155</v>
+        <v>3.162358110002967e-155</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>2.907474426326634e-155</v>
+        <v>2.895839490024237e-155</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>2.703994643621531e-155</v>
+        <v>2.658033983276404e-155</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>2.520154664903755e-155</v>
+        <v>2.444595667780755e-155</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>2.347848986139172e-155</v>
+        <v>2.251178621558569e-155</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>2.179826485433027e-155</v>
+        <v>2.073756982340175e-155</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>2.015402134852624e-155</v>
+        <v>1.910764609362434e-155</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>1.856935299081636e-155</v>
+        <v>1.761775820411248e-155</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>1.706802016283124e-155</v>
+        <v>1.626371179317135e-155</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>1.567378324620154e-155</v>
+        <v>1.504131249910612e-155</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>1.441040262255787e-155</v>
+        <v>1.394636596022199e-155</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>1.330104695789401e-155</v>
+        <v>1.297456794151672e-155</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>1.234994230755631e-155</v>
+        <v>1.211809683043651e-155</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>1.153882845352416e-155</v>
+        <v>1.136495562833754e-155</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>1.084813818928534e-155</v>
+        <v>1.070290464710951e-155</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>1.02583043083335e-155</v>
+        <v>1.011970419864767e-155</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>9.749759604157716e-156</v>
+        <v>9.603114594842826e-156</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>9.302936870249535e-156</v>
+        <v>9.140896147588239e-156</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>8.898268900099897e-156</v>
+        <v>8.720809168776547e-156</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>8.516589310625743e-156</v>
+        <v>8.330832454844082e-156</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>8.148287076287752e-156</v>
+        <v>7.964153324976387e-156</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>7.793497251713482e-156</v>
+        <v>7.619271581961252e-156</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>7.452793864151596e-156</v>
+        <v>7.294926307846597e-156</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>7.126750940850767e-156</v>
+        <v>6.989856584680344e-156</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>6.815942509059665e-156</v>
+        <v>6.702801494510418e-156</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>6.520942596026956e-156</v>
+        <v>6.432500119384736e-156</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>6.24232522900131e-156</v>
+        <v>6.177691541351227e-156</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>5.980664435231398e-156</v>
+        <v>5.937114842457809e-156</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>5.736291428092541e-156</v>
+        <v>5.709476317299522e-156</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>5.507760233215106e-156</v>
+        <v>5.49324228464695e-156</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>5.292835077529985e-156</v>
+        <v>5.286772415790907e-156</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>5.089276604727681e-156</v>
+        <v>5.088425898172904e-156</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>4.89484545849869e-156</v>
+        <v>4.896561919234441e-156</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>4.707302282533514e-156</v>
+        <v>4.709539666417027e-156</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>4.524407720522655e-156</v>
+        <v>4.525718327162167e-156</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>4.343922416156607e-156</v>
+        <v>4.343457088911366e-156</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>4.163607013125877e-156</v>
+        <v>4.161115139106131e-156</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>3.981232222249016e-156</v>
+        <v>3.977059354484484e-156</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>3.79555160432791e-156</v>
+        <v>3.790407314955615e-156</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>3.607112533241008e-156</v>
+        <v>3.601646719152706e-156</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>3.416653285443187e-156</v>
+        <v>3.411411077554031e-156</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>3.224912137389325e-156</v>
+        <v>3.220333900637861e-156</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>3.032627365534299e-156</v>
+        <v>3.02904869888246e-156</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>2.840537246332986e-156</v>
+        <v>2.838188982766101e-156</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>2.649380056240263e-156</v>
+        <v>2.648388262767055e-156</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>2.45989407171101e-156</v>
+        <v>2.460280049363591e-156</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>2.27281773166206e-156</v>
+        <v>2.274498038608591e-156</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>2.08903295204691e-156</v>
+        <v>2.091839815354999e-156</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>1.909828339385961e-156</v>
+        <v>1.913567512864035e-156</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>1.736564062174907e-156</v>
+        <v>1.741025007138116e-156</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>1.570600288910628e-156</v>
+        <v>1.575556174180835e-156</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>1.413297310794063e-156</v>
+        <v>1.418505017037586e-156</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>1.266441004196676e-156</v>
+        <v>1.271656168697401e-156</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>1.133195666513862e-156</v>
+        <v>1.138221411449223e-156</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>1.017004164246559e-156</v>
+        <v>1.021700944326233e-156</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>9.213093638955576e-157</v>
+        <v>9.255949663614658e-157</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>8.495540954033163e-157</v>
+        <v>8.534036399809843e-157</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>8.027347265454345e-157</v>
+        <v>8.061774104293292e-157</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>7.727752385834014e-157</v>
+        <v>7.758822656387327e-157</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>7.494970533701288e-157</v>
+        <v>7.523788366803505e-157</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>7.22931866877203e-157</v>
+        <v>7.257358533217214e-157</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>6.885733295112095e-157</v>
+        <v>6.914274923002213e-157</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>6.47749045562294e-157</v>
+        <v>6.507015281957857e-157</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>6.020713945946634e-157</v>
+        <v>6.050875646772921e-157</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>5.531527561725246e-157</v>
+        <v>5.561152054136171e-157</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>5.026055304719784e-157</v>
+        <v>5.053140818248248e-157</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>4.521834122048217e-157</v>
+        <v>4.544040597180447e-157</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>4.041187661050908e-157</v>
+        <v>4.057494707167184e-157</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>3.607452231437118e-157</v>
+        <v>3.618509880261479e-157</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>3.243686332125894e-157</v>
+        <v>3.251798876295097e-157</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>2.954305981108555e-157</v>
+        <v>2.962347462048252e-157</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>2.713635347138514e-157</v>
+        <v>2.72329898466153e-157</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>2.493265037986806e-157</v>
+        <v>2.504904207465757e-157</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>2.265571930290799e-157</v>
+        <v>2.278236793901564e-157</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>2.022136153220331e-157</v>
+        <v>2.034468314492247e-157</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>1.774384169064484e-157</v>
+        <v>1.785541287718373e-157</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>1.534657310388692e-157</v>
+        <v>1.544355724957818e-157</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>1.312999611693928e-157</v>
+        <v>1.321407512316754e-157</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>1.111063656360336e-157</v>
+        <v>1.118410871903164e-157</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>9.285865605167522e-158</v>
+        <v>9.350754869725351e-158</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>7.653054402920125e-158</v>
+        <v>7.711110407803498e-158</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>6.209574118149525e-158</v>
+        <v>6.262272165820933e-158</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>4.952795912144079e-158</v>
+        <v>5.001336976332501e-158</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>3.880090946192143e-158</v>
+        <v>3.925401671893048e-158</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>2.988830381582077e-158</v>
+        <v>3.03156308505742e-158</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>2.276385379602843e-158</v>
+        <v>2.316918048381071e-158</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>1.73990679890081e-158</v>
+        <v>1.778340524910739e-158</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>1.361180026787836e-158</v>
+        <v>1.39715997487865e-158</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>1.096849616213343e-158</v>
+        <v>1.12927209459291e-158</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>9.014655938425355e-159</v>
+        <v>9.284644636988403e-159</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>7.444813209749191e-159</v>
+        <v>7.643003015226536e-159</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>6.190829536905883e-159</v>
+        <v>6.314647231450333e-159</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>5.20665933710543e-159</v>
+        <v>5.268181078161459e-159</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>4.453044072947459e-159</v>
+        <v>4.467340881486756e-159</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>3.893762876651423e-159</v>
+        <v>3.873684441569576e-159</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>3.492609117067879e-159</v>
+        <v>3.448759348466377e-159</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>3.213376163047391e-159</v>
+        <v>3.154113192233618e-159</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>3.019857383440515e-159</v>
+        <v>2.951293562927759e-159</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>2.875872875753026e-159</v>
+        <v>2.801876385804487e-159</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>2.754303751608475e-159</v>
+        <v>2.677043218659024e-159</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>2.650242635113864e-159</v>
+        <v>2.571522169848145e-159</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>2.56212323227805e-159</v>
+        <v>2.483583247632595e-159</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>2.488379249109886e-159</v>
+        <v>2.411496460273126e-159</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>2.427444391618227e-159</v>
+        <v>2.353531816030485e-159</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>2.377752365811929e-159</v>
+        <v>2.307959323165421e-159</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>2.337736877699845e-159</v>
+        <v>2.273048989938681e-159</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>2.305831633290831e-159</v>
+        <v>2.247070824611014e-159</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>2.280470338593741e-159</v>
+        <v>2.22829483544317e-159</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>2.260086699617429e-159</v>
+        <v>2.214991030695894e-159</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>2.243114422370751e-159</v>
+        <v>2.205429418629938e-159</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>2.227987212862561e-159</v>
+        <v>2.197880007506047e-159</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>2.213138777101715e-159</v>
+        <v>2.190612805584972e-159</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>2.197002821097066e-159</v>
+        <v>2.181897821127461e-159</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>2.178013050857469e-159</v>
+        <v>2.170005062394262e-159</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>2.154603172391779e-159</v>
+        <v>2.153204537646122e-159</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>2.125206891708851e-159</v>
+        <v>2.129766255143791e-159</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>2.08825791481754e-159</v>
+        <v>2.097960223148017e-159</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>2.0421899477267e-159</v>
+        <v>2.056056449919549e-159</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>1.985517067651724e-159</v>
+        <v>2.002413292434551e-159</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>1.918259939841688e-159</v>
+        <v>1.937045237061419e-159</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>1.841777261298967e-159</v>
+        <v>1.861437612671504e-159</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>1.757474240140829e-159</v>
+        <v>1.777126875864984e-159</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>1.666756084484637e-159</v>
+        <v>1.685649483242128e-159</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>1.571028002447389e-159</v>
+        <v>1.588541891402841e-159</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>1.471695202146723e-159</v>
+        <v>1.487340556947676e-159</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>1.370162891699528e-159</v>
+        <v>1.383581936476421e-159</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>1.267836279223464e-159</v>
+        <v>1.278802486589654e-159</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>1.166120572835505e-159</v>
+        <v>1.174538663887251e-159</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>1.066420980653019e-159</v>
+        <v>1.072326924969492e-159</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>9.701427107932781e-160</v>
+        <v>9.737037264365541e-160</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>8.786909713735511e-160</v>
+        <v>8.802055248886174e-160</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>7.934709705111082e-160</v>
+        <v>7.933687769258593e-160</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>7.158879163232194e-160</v>
+        <v>7.14729939148459e-160</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>6.473470169271554e-160</v>
+        <v>6.458254681565952e-160</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>5.892534804401855e-160</v>
+        <v>5.881918205504459e-160</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>5.430125149795804e-160</v>
+        <v>5.433654529301901e-160</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>5.1002932866261e-160</v>
+        <v>5.128828218960064e-160</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>4.917091296065444e-160</v>
+        <v>4.982803840480733e-160</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>4.880458230948644e-160</v>
+        <v>4.995211603975556e-160</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>4.811961172895375e-160</v>
+        <v>4.966818087405121e-160</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>4.41090874788514e-160</v>
+        <v>4.562086163701944e-160</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>3.374223655675383e-160</v>
+        <v>3.442818680507953e-160</v>
       </c>
     </row>
   </sheetData>
